--- a/cache/daily/ch/202003260000..xlsx
+++ b/cache/daily/ch/202003260000..xlsx
@@ -6720,7 +6720,7 @@
         <v>1143</v>
       </c>
       <c r="I81" t="n">
-        <v>5110</v>
+        <v>5109</v>
       </c>
       <c r="J81" t="n">
         <v>128</v>
@@ -6777,7 +6777,7 @@
         <v>3569</v>
       </c>
       <c r="AB81" t="n">
-        <v>30435</v>
+        <v>30434</v>
       </c>
     </row>
     <row r="82">
@@ -6806,7 +6806,7 @@
         <v>1145</v>
       </c>
       <c r="I82" t="n">
-        <v>5115</v>
+        <v>5114</v>
       </c>
       <c r="J82" t="n">
         <v>128</v>
@@ -6861,7 +6861,7 @@
         <v>3571</v>
       </c>
       <c r="AB82" t="n">
-        <v>30478</v>
+        <v>30477</v>
       </c>
     </row>
     <row r="83">
@@ -6888,7 +6888,7 @@
         <v>1146</v>
       </c>
       <c r="I83" t="n">
-        <v>5117</v>
+        <v>5116</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
@@ -6937,7 +6937,7 @@
         <v>3576</v>
       </c>
       <c r="AB83" t="n">
-        <v>30509</v>
+        <v>30508</v>
       </c>
     </row>
     <row r="84">
@@ -6962,7 +6962,7 @@
         <v>1147</v>
       </c>
       <c r="I84" t="n">
-        <v>5118</v>
+        <v>5117</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
@@ -7011,7 +7011,7 @@
         <v>3578</v>
       </c>
       <c r="AB84" t="n">
-        <v>30525</v>
+        <v>30524</v>
       </c>
     </row>
     <row r="85">
@@ -7039,7 +7039,9 @@
       <c r="H85" t="n">
         <v>1147</v>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>5118</v>
+      </c>
       <c r="J85" t="n">
         <v>128</v>
       </c>
@@ -7121,7 +7123,9 @@
       <c r="H86" t="n">
         <v>1147</v>
       </c>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>5120</v>
+      </c>
       <c r="J86" t="n">
         <v>128</v>
       </c>
@@ -7175,7 +7179,7 @@
         <v>3586</v>
       </c>
       <c r="AB86" t="n">
-        <v>30579</v>
+        <v>30581</v>
       </c>
     </row>
     <row r="87">
@@ -7205,7 +7209,9 @@
       <c r="H87" t="n">
         <v>1152</v>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>5123</v>
+      </c>
       <c r="J87" t="n">
         <v>128</v>
       </c>
@@ -7253,7 +7259,7 @@
         <v>3589</v>
       </c>
       <c r="AB87" t="n">
-        <v>30610</v>
+        <v>30615</v>
       </c>
     </row>
     <row r="88">
@@ -7297,7 +7303,7 @@
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>30615</v>
+        <v>30620</v>
       </c>
     </row>
   </sheetData>
@@ -11449,7 +11455,7 @@
         <v>76</v>
       </c>
       <c r="I59" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J59" t="n">
         <v>6</v>
@@ -11506,7 +11512,7 @@
         <v>110</v>
       </c>
       <c r="AB59" t="n">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="60">
@@ -11537,7 +11543,7 @@
         <v>76</v>
       </c>
       <c r="I60" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J60" t="n">
         <v>6</v>
@@ -11594,7 +11600,7 @@
         <v>113</v>
       </c>
       <c r="AB60" t="n">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="61">
@@ -11625,7 +11631,7 @@
         <v>76</v>
       </c>
       <c r="I61" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J61" t="n">
         <v>7</v>
@@ -11682,7 +11688,7 @@
         <v>114</v>
       </c>
       <c r="AB61" t="n">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="62">
@@ -11709,7 +11715,7 @@
         <v>76</v>
       </c>
       <c r="I62" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J62" t="n">
         <v>7</v>
@@ -11764,7 +11770,7 @@
         <v>115</v>
       </c>
       <c r="AB62" t="n">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="63">
@@ -11789,7 +11795,7 @@
         <v>77</v>
       </c>
       <c r="I63" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J63" t="n">
         <v>7</v>
@@ -11844,7 +11850,7 @@
         <v>115</v>
       </c>
       <c r="AB63" t="n">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="64">
@@ -11875,7 +11881,7 @@
         <v>78</v>
       </c>
       <c r="I64" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J64" t="n">
         <v>7</v>
@@ -11932,7 +11938,7 @@
         <v>119</v>
       </c>
       <c r="AB64" t="n">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="65">
@@ -11963,7 +11969,7 @@
         <v>78</v>
       </c>
       <c r="I65" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J65" t="n">
         <v>8</v>
@@ -12020,7 +12026,7 @@
         <v>119</v>
       </c>
       <c r="AB65" t="n">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="66">
@@ -12051,7 +12057,7 @@
         <v>78</v>
       </c>
       <c r="I66" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J66" t="n">
         <v>9</v>
@@ -12108,7 +12114,7 @@
         <v>121</v>
       </c>
       <c r="AB66" t="n">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="67">
@@ -12139,7 +12145,7 @@
         <v>78</v>
       </c>
       <c r="I67" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J67" t="n">
         <v>10</v>
@@ -12196,7 +12202,7 @@
         <v>123</v>
       </c>
       <c r="AB67" t="n">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="68">
@@ -12227,7 +12233,7 @@
         <v>78</v>
       </c>
       <c r="I68" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J68" t="n">
         <v>11</v>
@@ -12284,7 +12290,7 @@
         <v>123</v>
       </c>
       <c r="AB68" t="n">
-        <v>1780</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="69">
@@ -12311,7 +12317,7 @@
         <v>79</v>
       </c>
       <c r="I69" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J69" t="n">
         <v>11</v>
@@ -12364,7 +12370,7 @@
         <v>123</v>
       </c>
       <c r="AB69" t="n">
-        <v>1794</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="70">
@@ -12391,7 +12397,7 @@
         <v>79</v>
       </c>
       <c r="I70" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J70" t="n">
         <v>11</v>
@@ -12444,7 +12450,7 @@
         <v>123</v>
       </c>
       <c r="AB70" t="n">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="71">
@@ -12475,7 +12481,7 @@
         <v>79</v>
       </c>
       <c r="I71" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J71" t="n">
         <v>12</v>
@@ -12532,7 +12538,7 @@
         <v>123</v>
       </c>
       <c r="AB71" t="n">
-        <v>1808</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="72">
@@ -12563,7 +12569,7 @@
         <v>80</v>
       </c>
       <c r="I72" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="J72" t="n">
         <v>12</v>
@@ -12620,7 +12626,7 @@
         <v>124</v>
       </c>
       <c r="AB72" t="n">
-        <v>1820</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="73">
@@ -12651,7 +12657,7 @@
         <v>80</v>
       </c>
       <c r="I73" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J73" t="n">
         <v>12</v>
@@ -12708,7 +12714,7 @@
         <v>125</v>
       </c>
       <c r="AB73" t="n">
-        <v>1826</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="74">
@@ -12737,7 +12743,7 @@
         <v>80</v>
       </c>
       <c r="I74" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J74" t="n">
         <v>12</v>
@@ -12794,7 +12800,7 @@
         <v>125</v>
       </c>
       <c r="AB74" t="n">
-        <v>1835</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="75">
@@ -12823,7 +12829,7 @@
         <v>81</v>
       </c>
       <c r="I75" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J75" t="n">
         <v>12</v>
@@ -12880,7 +12886,7 @@
         <v>125</v>
       </c>
       <c r="AB75" t="n">
-        <v>1844</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="76">
@@ -12907,7 +12913,7 @@
         <v>82</v>
       </c>
       <c r="I76" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="J76" t="n">
         <v>12</v>
@@ -12958,7 +12964,7 @@
         <v>126</v>
       </c>
       <c r="AB76" t="n">
-        <v>1854</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="77">
@@ -12983,7 +12989,7 @@
         <v>83</v>
       </c>
       <c r="I77" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="J77" t="n">
         <v>12</v>
@@ -13032,7 +13038,7 @@
         <v>126</v>
       </c>
       <c r="AB77" t="n">
-        <v>1861</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="78">
@@ -13063,7 +13069,7 @@
         <v>83</v>
       </c>
       <c r="I78" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="J78" t="n">
         <v>12</v>
@@ -13120,7 +13126,7 @@
         <v>126</v>
       </c>
       <c r="AB78" t="n">
-        <v>1864</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="79">
@@ -13151,7 +13157,7 @@
         <v>83</v>
       </c>
       <c r="I79" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J79" t="n">
         <v>12</v>
@@ -13208,7 +13214,7 @@
         <v>126</v>
       </c>
       <c r="AB79" t="n">
-        <v>1870</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="80">
@@ -13235,7 +13241,7 @@
         <v>84</v>
       </c>
       <c r="I80" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J80" t="n">
         <v>12</v>
@@ -13292,7 +13298,7 @@
         <v>126</v>
       </c>
       <c r="AB80" t="n">
-        <v>1873</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="81">
@@ -13321,7 +13327,7 @@
         <v>84</v>
       </c>
       <c r="I81" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J81" t="n">
         <v>12</v>
@@ -13378,7 +13384,7 @@
         <v>126</v>
       </c>
       <c r="AB81" t="n">
-        <v>1876</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="82">
@@ -13407,7 +13413,7 @@
         <v>84</v>
       </c>
       <c r="I82" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J82" t="n">
         <v>12</v>
@@ -13462,7 +13468,7 @@
         <v>127</v>
       </c>
       <c r="AB82" t="n">
-        <v>1881</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="83">
@@ -13489,7 +13495,7 @@
         <v>84</v>
       </c>
       <c r="I83" t="n">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
@@ -13534,7 +13540,7 @@
         <v>127</v>
       </c>
       <c r="AB83" t="n">
-        <v>1882</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="84">
@@ -13559,7 +13565,7 @@
         <v>84</v>
       </c>
       <c r="I84" t="n">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
@@ -13604,7 +13610,7 @@
         <v>127</v>
       </c>
       <c r="AB84" t="n">
-        <v>1885</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="85">
@@ -13632,7 +13638,9 @@
       <c r="H85" t="n">
         <v>84</v>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>275</v>
+      </c>
       <c r="J85" t="n">
         <v>12</v>
       </c>
@@ -13686,7 +13694,7 @@
         <v>127</v>
       </c>
       <c r="AB85" t="n">
-        <v>1890</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="86">
@@ -13712,7 +13720,9 @@
       <c r="H86" t="n">
         <v>84</v>
       </c>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>275</v>
+      </c>
       <c r="J86" t="n">
         <v>12</v>
       </c>
@@ -13764,7 +13774,7 @@
         <v>128</v>
       </c>
       <c r="AB86" t="n">
-        <v>1892</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="87">
@@ -13794,7 +13804,9 @@
       <c r="H87" t="n">
         <v>84</v>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>275</v>
+      </c>
       <c r="J87" t="n">
         <v>12</v>
       </c>
@@ -13842,7 +13854,7 @@
         <v>128</v>
       </c>
       <c r="AB87" t="n">
-        <v>1893</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="88">
@@ -13886,7 +13898,7 @@
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>1893</v>
+        <v>1898</v>
       </c>
     </row>
   </sheetData>
@@ -19977,7 +19989,9 @@
       <c r="H86" t="n">
         <v>15</v>
       </c>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>167</v>
+      </c>
       <c r="J86" t="n">
         <v>2</v>
       </c>
@@ -20023,7 +20037,7 @@
         <v>30</v>
       </c>
       <c r="AB86" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="87">
@@ -20049,7 +20063,9 @@
       <c r="H87" t="n">
         <v>12</v>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>166</v>
+      </c>
       <c r="J87" t="n">
         <v>2</v>
       </c>
@@ -20093,7 +20109,7 @@
         <v>29</v>
       </c>
       <c r="AB87" t="n">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="88">
@@ -20113,7 +20129,9 @@
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>154</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
@@ -20133,7 +20151,7 @@
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>471</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -25187,7 +25205,7 @@
         <v>5</v>
       </c>
       <c r="I82" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -25230,7 +25248,7 @@
       </c>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83">
@@ -25446,7 +25464,9 @@
       <c r="H86" t="n">
         <v>4</v>
       </c>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>4</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
@@ -25482,7 +25502,7 @@
       </c>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87">
@@ -25508,7 +25528,9 @@
       <c r="H87" t="n">
         <v>4</v>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>3</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
@@ -25544,7 +25566,7 @@
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88">
@@ -25564,7 +25586,9 @@
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
@@ -25584,7 +25608,7 @@
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -29857,7 +29881,9 @@
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
@@ -29883,7 +29909,7 @@
         <v>6</v>
       </c>
       <c r="AB86" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
@@ -29905,7 +29931,9 @@
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
@@ -29931,7 +29959,7 @@
         <v>4</v>
       </c>
       <c r="AB87" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
@@ -29951,7 +29979,9 @@
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
@@ -29971,7 +30001,7 @@
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -34346,7 +34376,9 @@
       <c r="H86" t="n">
         <v>144</v>
       </c>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>743</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
@@ -34374,7 +34406,7 @@
       </c>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="n">
-        <v>5307</v>
+        <v>5311</v>
       </c>
     </row>
     <row r="87">
@@ -34398,7 +34430,9 @@
       <c r="H87" t="n">
         <v>144</v>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>746</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
@@ -34426,7 +34460,7 @@
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="n">
-        <v>5321</v>
+        <v>5328</v>
       </c>
     </row>
     <row r="88">
@@ -34444,7 +34478,9 @@
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>763</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
@@ -34466,7 +34502,7 @@
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>5322</v>
+        <v>5346</v>
       </c>
     </row>
   </sheetData>
@@ -36032,7 +36068,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>12778</v>
+        <v>12776</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -36053,7 +36089,7 @@
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="n">
-        <v>13420</v>
+        <v>13418</v>
       </c>
     </row>
     <row r="39">
@@ -36070,7 +36106,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>13852</v>
+        <v>13847</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -36091,7 +36127,7 @@
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="n">
-        <v>14494</v>
+        <v>14489</v>
       </c>
     </row>
     <row r="40">
@@ -36108,7 +36144,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>14683</v>
+        <v>14674</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -36129,7 +36165,7 @@
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="n">
-        <v>15325</v>
+        <v>15316</v>
       </c>
     </row>
     <row r="41">
@@ -36146,7 +36182,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>15242</v>
+        <v>15233</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -36167,7 +36203,7 @@
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="n">
-        <v>15884</v>
+        <v>15875</v>
       </c>
     </row>
     <row r="42">
@@ -36184,7 +36220,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>15551</v>
+        <v>15542</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -36205,7 +36241,7 @@
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="n">
-        <v>16193</v>
+        <v>16184</v>
       </c>
     </row>
     <row r="43">
@@ -36222,7 +36258,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>16163</v>
+        <v>16149</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -36243,7 +36279,7 @@
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="n">
-        <v>16805</v>
+        <v>16791</v>
       </c>
     </row>
     <row r="44">
@@ -36260,7 +36296,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>16997</v>
+        <v>16981</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -36281,7 +36317,7 @@
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="n">
-        <v>17639</v>
+        <v>17623</v>
       </c>
     </row>
     <row r="45">
@@ -36298,7 +36334,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>17758</v>
+        <v>17742</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -36319,7 +36355,7 @@
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="n">
-        <v>18400</v>
+        <v>18384</v>
       </c>
     </row>
     <row r="46">
@@ -36336,7 +36372,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>18318</v>
+        <v>18301</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -36357,7 +36393,7 @@
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="n">
-        <v>18960</v>
+        <v>18943</v>
       </c>
     </row>
     <row r="47">
@@ -36374,7 +36410,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>18718</v>
+        <v>18698</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -36395,7 +36431,7 @@
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="n">
-        <v>19360</v>
+        <v>19340</v>
       </c>
     </row>
     <row r="48">
@@ -36412,7 +36448,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>19060</v>
+        <v>19037</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -36433,7 +36469,7 @@
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="n">
-        <v>19702</v>
+        <v>19679</v>
       </c>
     </row>
     <row r="49">
@@ -36450,7 +36486,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>19227</v>
+        <v>19204</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -36471,7 +36507,7 @@
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="n">
-        <v>19869</v>
+        <v>19846</v>
       </c>
     </row>
     <row r="50">
@@ -36488,7 +36524,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>19504</v>
+        <v>19478</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -36509,7 +36545,7 @@
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="n">
-        <v>20146</v>
+        <v>20120</v>
       </c>
     </row>
     <row r="51">
@@ -36526,7 +36562,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>20046</v>
+        <v>20016</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -36547,7 +36583,7 @@
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="n">
-        <v>20688</v>
+        <v>20658</v>
       </c>
     </row>
     <row r="52">
@@ -36564,7 +36600,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>20471</v>
+        <v>20436</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -36585,7 +36621,7 @@
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="n">
-        <v>21113</v>
+        <v>21078</v>
       </c>
     </row>
     <row r="53">
@@ -36602,7 +36638,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>21099</v>
+        <v>21059</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -36623,7 +36659,7 @@
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="n">
-        <v>21741</v>
+        <v>21701</v>
       </c>
     </row>
     <row r="54">
@@ -36640,7 +36676,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>21489</v>
+        <v>21447</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -36661,7 +36697,7 @@
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="n">
-        <v>22131</v>
+        <v>22089</v>
       </c>
     </row>
     <row r="55">
@@ -36678,7 +36714,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>21883</v>
+        <v>21839</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -36699,7 +36735,7 @@
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="n">
-        <v>22525</v>
+        <v>22481</v>
       </c>
     </row>
     <row r="56">
@@ -36716,7 +36752,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>22037</v>
+        <v>21991</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -36737,7 +36773,7 @@
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="n">
-        <v>22679</v>
+        <v>22633</v>
       </c>
     </row>
     <row r="57">
@@ -36754,7 +36790,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>22387</v>
+        <v>22336</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -36775,7 +36811,7 @@
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="n">
-        <v>23029</v>
+        <v>22978</v>
       </c>
     </row>
     <row r="58">
@@ -36792,7 +36828,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>22869</v>
+        <v>22815</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -36813,7 +36849,7 @@
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="n">
-        <v>23511</v>
+        <v>23457</v>
       </c>
     </row>
     <row r="59">
@@ -36830,7 +36866,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>23291</v>
+        <v>23237</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -36851,7 +36887,7 @@
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="n">
-        <v>23933</v>
+        <v>23879</v>
       </c>
     </row>
     <row r="60">
@@ -36868,7 +36904,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>23741</v>
+        <v>23682</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -36889,7 +36925,7 @@
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="n">
-        <v>24383</v>
+        <v>24324</v>
       </c>
     </row>
     <row r="61">
@@ -36906,7 +36942,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>24083</v>
+        <v>24019</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -36927,7 +36963,7 @@
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="n">
-        <v>24725</v>
+        <v>24661</v>
       </c>
     </row>
     <row r="62">
@@ -36944,7 +36980,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>24426</v>
+        <v>24361</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -36965,7 +37001,7 @@
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="n">
-        <v>25068</v>
+        <v>25003</v>
       </c>
     </row>
     <row r="63">
@@ -36982,7 +37018,7 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>24600</v>
+        <v>24533</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -37003,7 +37039,7 @@
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="n">
-        <v>25242</v>
+        <v>25175</v>
       </c>
     </row>
     <row r="64">
@@ -37020,7 +37056,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>25016</v>
+        <v>24946</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -37041,7 +37077,7 @@
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="n">
-        <v>25658</v>
+        <v>25588</v>
       </c>
     </row>
     <row r="65">
@@ -37058,7 +37094,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>25530</v>
+        <v>25459</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -37079,7 +37115,7 @@
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="n">
-        <v>26172</v>
+        <v>26101</v>
       </c>
     </row>
     <row r="66">
@@ -37096,7 +37132,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>25952</v>
+        <v>25874</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -37117,7 +37153,7 @@
       <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="n">
-        <v>26594</v>
+        <v>26516</v>
       </c>
     </row>
     <row r="67">
@@ -37134,7 +37170,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>26228</v>
+        <v>26149</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -37155,7 +37191,7 @@
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="n">
-        <v>26870</v>
+        <v>26791</v>
       </c>
     </row>
     <row r="68">
@@ -37172,7 +37208,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>26662</v>
+        <v>26576</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -37193,7 +37229,7 @@
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="n">
-        <v>27304</v>
+        <v>27218</v>
       </c>
     </row>
     <row r="69">
@@ -37210,7 +37246,7 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>26928</v>
+        <v>26841</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -37231,7 +37267,7 @@
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="n">
-        <v>27570</v>
+        <v>27483</v>
       </c>
     </row>
     <row r="70">
@@ -37248,7 +37284,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>27083</v>
+        <v>26995</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -37269,7 +37305,7 @@
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="n">
-        <v>27725</v>
+        <v>27637</v>
       </c>
     </row>
     <row r="71">
@@ -37286,7 +37322,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>27452</v>
+        <v>27350</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -37307,7 +37343,7 @@
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="n">
-        <v>28094</v>
+        <v>27992</v>
       </c>
     </row>
     <row r="72">
@@ -37324,7 +37360,7 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>28001</v>
+        <v>27892</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -37345,7 +37381,7 @@
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="n">
-        <v>28643</v>
+        <v>28534</v>
       </c>
     </row>
     <row r="73">
@@ -37362,7 +37398,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>28432</v>
+        <v>28313</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -37383,7 +37419,7 @@
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="n">
-        <v>29074</v>
+        <v>28955</v>
       </c>
     </row>
     <row r="74">
@@ -37400,7 +37436,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>28760</v>
+        <v>28633</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -37421,7 +37457,7 @@
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="n">
-        <v>29402</v>
+        <v>29275</v>
       </c>
     </row>
     <row r="75">
@@ -37438,7 +37474,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>29090</v>
+        <v>28955</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -37459,7 +37495,7 @@
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="n">
-        <v>29732</v>
+        <v>29597</v>
       </c>
     </row>
     <row r="76">
@@ -37476,7 +37512,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>29415</v>
+        <v>29268</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -37497,7 +37533,7 @@
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="n">
-        <v>30057</v>
+        <v>29910</v>
       </c>
     </row>
     <row r="77">
@@ -37514,7 +37550,7 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>29598</v>
+        <v>29446</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -37535,7 +37571,7 @@
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="n">
-        <v>30240</v>
+        <v>30088</v>
       </c>
     </row>
     <row r="78">
@@ -37552,7 +37588,7 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>30001</v>
+        <v>29826</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -37573,7 +37609,7 @@
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="n">
-        <v>30643</v>
+        <v>30468</v>
       </c>
     </row>
     <row r="79">
@@ -37590,7 +37626,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>30549</v>
+        <v>30342</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -37611,7 +37647,7 @@
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="n">
-        <v>31191</v>
+        <v>30984</v>
       </c>
     </row>
     <row r="80">
@@ -37628,7 +37664,7 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>31018</v>
+        <v>30800</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -37649,7 +37685,7 @@
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="n">
-        <v>31660</v>
+        <v>31442</v>
       </c>
     </row>
     <row r="81">
@@ -37666,7 +37702,7 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>31463</v>
+        <v>31227</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -37687,7 +37723,7 @@
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="n">
-        <v>32105</v>
+        <v>31869</v>
       </c>
     </row>
     <row r="82">
@@ -37704,7 +37740,7 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>31995</v>
+        <v>31727</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -37725,7 +37761,7 @@
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="n">
-        <v>32637</v>
+        <v>32369</v>
       </c>
     </row>
     <row r="83">
@@ -37742,7 +37778,7 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>32284</v>
+        <v>32012</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -37763,7 +37799,7 @@
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="n">
-        <v>32926</v>
+        <v>32654</v>
       </c>
     </row>
     <row r="84">
@@ -37780,7 +37816,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>32468</v>
+        <v>32199</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -37801,7 +37837,7 @@
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="n">
-        <v>33110</v>
+        <v>32841</v>
       </c>
     </row>
     <row r="85">
@@ -37817,7 +37853,9 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>32720</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
@@ -37837,7 +37875,7 @@
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="n">
-        <v>33110</v>
+        <v>33362</v>
       </c>
     </row>
     <row r="86">
@@ -37853,7 +37891,9 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>33180</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
@@ -37873,7 +37913,7 @@
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="n">
-        <v>33110</v>
+        <v>33822</v>
       </c>
     </row>
     <row r="87">
@@ -37889,7 +37929,9 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>33537</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
@@ -37909,7 +37951,7 @@
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="n">
-        <v>33110</v>
+        <v>34179</v>
       </c>
     </row>
     <row r="88">
@@ -37945,7 +37987,7 @@
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>33110</v>
+        <v>34179</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202003260000..xlsx
+++ b/cache/daily/ch/202003260000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB88"/>
+  <dimension ref="A1:AB89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7278,7 +7278,9 @@
         <v>838</v>
       </c>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>1152</v>
+      </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -7288,21 +7290,69 @@
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
+      <c r="R88" t="n">
+        <v>78</v>
+      </c>
       <c r="S88" t="n">
         <v>439</v>
       </c>
       <c r="T88" t="n">
         <v>307</v>
       </c>
-      <c r="U88" t="inlineStr"/>
+      <c r="U88" t="n">
+        <v>380</v>
+      </c>
       <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
+      <c r="W88" t="n">
+        <v>93</v>
+      </c>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
+        <v>30620</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-22</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>1152</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="n">
+        <v>78</v>
+      </c>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="n">
+        <v>380</v>
+      </c>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="n">
         <v>30620</v>
       </c>
     </row>
@@ -7317,7 +7367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB88"/>
+  <dimension ref="A1:AB89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13873,7 +13923,9 @@
         <v>35</v>
       </c>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>84</v>
+      </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -13890,14 +13942,60 @@
       <c r="T88" t="n">
         <v>23</v>
       </c>
-      <c r="U88" t="inlineStr"/>
+      <c r="U88" t="n">
+        <v>18</v>
+      </c>
       <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
+      <c r="W88" t="n">
+        <v>7</v>
+      </c>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-22</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>84</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="n">
+        <v>6</v>
+      </c>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="n">
+        <v>18</v>
+      </c>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="n">
         <v>1898</v>
       </c>
     </row>
@@ -13912,7 +14010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB88"/>
+  <dimension ref="A1:AB89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19256,7 +19354,7 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V76" t="n">
         <v>81</v>
@@ -19277,7 +19375,7 @@
         <v>37</v>
       </c>
       <c r="AB76" t="n">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="77">
@@ -19326,7 +19424,7 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V77" t="n">
         <v>77</v>
@@ -19347,7 +19445,7 @@
         <v>40</v>
       </c>
       <c r="AB77" t="n">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="78">
@@ -19408,7 +19506,7 @@
       </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V78" t="n">
         <v>80</v>
@@ -19429,7 +19527,7 @@
         <v>44</v>
       </c>
       <c r="AB78" t="n">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="79">
@@ -19490,7 +19588,7 @@
       </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V79" t="n">
         <v>79</v>
@@ -19511,7 +19609,7 @@
         <v>44</v>
       </c>
       <c r="AB79" t="n">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="80">
@@ -19570,7 +19668,7 @@
       </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V80" t="n">
         <v>76</v>
@@ -19591,7 +19689,7 @@
         <v>38</v>
       </c>
       <c r="AB80" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="81">
@@ -19648,7 +19746,7 @@
       </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V81" t="n">
         <v>71</v>
@@ -19669,7 +19767,7 @@
         <v>36</v>
       </c>
       <c r="AB81" t="n">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="82">
@@ -19732,7 +19830,7 @@
       </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V82" t="n">
         <v>63</v>
@@ -19751,7 +19849,7 @@
         <v>33</v>
       </c>
       <c r="AB82" t="n">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="83">
@@ -19796,7 +19894,7 @@
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V83" t="n">
         <v>59</v>
@@ -19817,7 +19915,7 @@
         <v>32</v>
       </c>
       <c r="AB83" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="84">
@@ -19862,7 +19960,7 @@
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V84" t="n">
         <v>57</v>
@@ -19883,7 +19981,7 @@
         <v>33</v>
       </c>
       <c r="AB84" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="85">
@@ -19942,7 +20040,7 @@
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V85" t="n">
         <v>56</v>
@@ -19963,7 +20061,7 @@
         <v>33</v>
       </c>
       <c r="AB85" t="n">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="86">
@@ -20018,7 +20116,7 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V86" t="n">
         <v>54</v>
@@ -20037,7 +20135,7 @@
         <v>30</v>
       </c>
       <c r="AB86" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87">
@@ -20092,7 +20190,7 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V87" t="n">
         <v>53</v>
@@ -20109,7 +20207,7 @@
         <v>29</v>
       </c>
       <c r="AB87" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="88">
@@ -20128,7 +20226,9 @@
         <v>3</v>
       </c>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>11</v>
+      </c>
       <c r="I88" t="n">
         <v>154</v>
       </c>
@@ -20143,15 +20243,61 @@
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
+      <c r="U88" t="n">
+        <v>6</v>
+      </c>
       <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>454</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-22</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>11</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="n">
+        <v>6</v>
+      </c>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="n">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -20165,7 +20311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB88"/>
+  <dimension ref="A1:AB89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25585,7 +25731,9 @@
         <v>0</v>
       </c>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
       <c r="I88" t="n">
         <v>2</v>
       </c>
@@ -25600,7 +25748,9 @@
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
@@ -25608,7 +25758,49 @@
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>51</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-22</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -25622,7 +25814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB88"/>
+  <dimension ref="A1:AB89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30004,6 +30196,42 @@
         <v>18</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-22</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -30015,7 +30243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB88"/>
+  <dimension ref="A1:AB89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34477,7 +34705,9 @@
         <v>798</v>
       </c>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>146</v>
+      </c>
       <c r="I88" t="n">
         <v>763</v>
       </c>
@@ -34496,13 +34726,53 @@
       </c>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
+      <c r="W88" t="n">
+        <v>82</v>
+      </c>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>5346</v>
+        <v>5348</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-22</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>146</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="n">
+        <v>5348</v>
       </c>
     </row>
   </sheetData>
@@ -34516,7 +34786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB88"/>
+  <dimension ref="A1:AB89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37990,6 +38260,42 @@
         <v>34179</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-22</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="n">
+        <v>34179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202003260000..xlsx
+++ b/cache/daily/ch/202003260000..xlsx
@@ -7325,7 +7325,9 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>976</v>
+      </c>
       <c r="H89" t="n">
         <v>1152</v>
       </c>
@@ -7342,7 +7344,9 @@
         <v>78</v>
       </c>
       <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
+      <c r="T89" t="n">
+        <v>307</v>
+      </c>
       <c r="U89" t="n">
         <v>380</v>
       </c>
@@ -13968,7 +13972,9 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>50</v>
+      </c>
       <c r="H89" t="n">
         <v>84</v>
       </c>
@@ -13985,7 +13991,9 @@
         <v>6</v>
       </c>
       <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
+      <c r="T89" t="n">
+        <v>23</v>
+      </c>
       <c r="U89" t="n">
         <v>18</v>
       </c>
@@ -34748,7 +34756,9 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>916</v>
+      </c>
       <c r="H89" t="n">
         <v>146</v>
       </c>
@@ -34763,7 +34773,9 @@
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
+      <c r="T89" t="n">
+        <v>284</v>
+      </c>
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
@@ -34772,7 +34784,7 @@
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
-        <v>5348</v>
+        <v>5349</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202003260000..xlsx
+++ b/cache/daily/ch/202003260000..xlsx
@@ -7277,7 +7277,9 @@
       <c r="F88" t="n">
         <v>838</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>976</v>
+      </c>
       <c r="H88" t="n">
         <v>1152</v>
       </c>
@@ -13926,7 +13928,9 @@
       <c r="F88" t="n">
         <v>35</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>50</v>
+      </c>
       <c r="H88" t="n">
         <v>84</v>
       </c>
@@ -34712,7 +34716,9 @@
       <c r="F88" t="n">
         <v>798</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>916</v>
+      </c>
       <c r="H88" t="n">
         <v>146</v>
       </c>

--- a/cache/daily/ch/202003260000..xlsx
+++ b/cache/daily/ch/202003260000..xlsx
@@ -1909,7 +1909,7 @@
         <v>5</v>
       </c>
       <c r="X24" t="n">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="Y24" t="n">
         <v>312</v>
@@ -1921,7 +1921,7 @@
         <v>568</v>
       </c>
       <c r="AB24" t="n">
-        <v>4794</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="25">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="n">
-        <v>5409</v>
+        <v>5410</v>
       </c>
       <c r="Y82" t="n">
         <v>1928</v>
@@ -6861,7 +6861,7 @@
         <v>3571</v>
       </c>
       <c r="AB82" t="n">
-        <v>30477</v>
+        <v>30478</v>
       </c>
     </row>
     <row r="83">
@@ -6925,7 +6925,7 @@
         <v>93</v>
       </c>
       <c r="X83" t="n">
-        <v>5409</v>
+        <v>5410</v>
       </c>
       <c r="Y83" t="n">
         <v>1931</v>
@@ -6937,7 +6937,7 @@
         <v>3576</v>
       </c>
       <c r="AB83" t="n">
-        <v>30508</v>
+        <v>30509</v>
       </c>
     </row>
     <row r="84">
@@ -6999,7 +6999,7 @@
         <v>93</v>
       </c>
       <c r="X84" t="n">
-        <v>5411</v>
+        <v>5412</v>
       </c>
       <c r="Y84" t="n">
         <v>1931</v>
@@ -7011,7 +7011,7 @@
         <v>3578</v>
       </c>
       <c r="AB84" t="n">
-        <v>30524</v>
+        <v>30525</v>
       </c>
     </row>
     <row r="85">
@@ -7085,7 +7085,7 @@
         <v>93</v>
       </c>
       <c r="X85" t="n">
-        <v>5418</v>
+        <v>5417</v>
       </c>
       <c r="Y85" t="n">
         <v>1932</v>
@@ -7097,7 +7097,7 @@
         <v>3582</v>
       </c>
       <c r="AB85" t="n">
-        <v>30562</v>
+        <v>30561</v>
       </c>
     </row>
     <row r="86">
@@ -7168,7 +7168,9 @@
       <c r="W86" t="n">
         <v>93</v>
       </c>
-      <c r="X86" t="inlineStr"/>
+      <c r="X86" t="n">
+        <v>5421</v>
+      </c>
       <c r="Y86" t="n">
         <v>1933</v>
       </c>
@@ -7179,7 +7181,7 @@
         <v>3586</v>
       </c>
       <c r="AB86" t="n">
-        <v>30581</v>
+        <v>30584</v>
       </c>
     </row>
     <row r="87">
@@ -7252,14 +7254,16 @@
       <c r="W87" t="n">
         <v>93</v>
       </c>
-      <c r="X87" t="inlineStr"/>
+      <c r="X87" t="n">
+        <v>5425</v>
+      </c>
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="n">
         <v>3589</v>
       </c>
       <c r="AB87" t="n">
-        <v>30615</v>
+        <v>30622</v>
       </c>
     </row>
     <row r="88">
@@ -7284,7 +7288,9 @@
         <v>1152</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>128</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
@@ -7308,12 +7314,14 @@
       <c r="W88" t="n">
         <v>93</v>
       </c>
-      <c r="X88" t="inlineStr"/>
+      <c r="X88" t="n">
+        <v>5425</v>
+      </c>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>30620</v>
+        <v>30627</v>
       </c>
     </row>
     <row r="89">
@@ -7334,10 +7342,14 @@
         <v>1152</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>128</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>733</v>
+      </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
@@ -7359,7 +7371,7 @@
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
-        <v>30620</v>
+        <v>30628</v>
       </c>
     </row>
   </sheetData>
@@ -10774,7 +10786,7 @@
         <v>4</v>
       </c>
       <c r="X50" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Y50" t="n">
         <v>93</v>
@@ -10786,7 +10798,7 @@
         <v>83</v>
       </c>
       <c r="AB50" t="n">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="51">
@@ -10862,7 +10874,7 @@
         <v>4</v>
       </c>
       <c r="X51" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y51" t="n">
         <v>94</v>
@@ -10874,7 +10886,7 @@
         <v>87</v>
       </c>
       <c r="AB51" t="n">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="52">
@@ -10950,7 +10962,7 @@
         <v>4</v>
       </c>
       <c r="X52" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y52" t="n">
         <v>94</v>
@@ -10962,7 +10974,7 @@
         <v>91</v>
       </c>
       <c r="AB52" t="n">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="53">
@@ -11038,7 +11050,7 @@
         <v>5</v>
       </c>
       <c r="X53" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Y53" t="n">
         <v>95</v>
@@ -11050,7 +11062,7 @@
         <v>95</v>
       </c>
       <c r="AB53" t="n">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="54">
@@ -11126,7 +11138,7 @@
         <v>5</v>
       </c>
       <c r="X54" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y54" t="n">
         <v>99</v>
@@ -11138,7 +11150,7 @@
         <v>99</v>
       </c>
       <c r="AB54" t="n">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="55">
@@ -11208,7 +11220,7 @@
         <v>5</v>
       </c>
       <c r="X55" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y55" t="n">
         <v>104</v>
@@ -11220,7 +11232,7 @@
         <v>105</v>
       </c>
       <c r="AB55" t="n">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="56">
@@ -11292,7 +11304,7 @@
         <v>5</v>
       </c>
       <c r="X56" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Y56" t="n">
         <v>107</v>
@@ -11304,7 +11316,7 @@
         <v>105</v>
       </c>
       <c r="AB56" t="n">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="57">
@@ -11380,7 +11392,7 @@
         <v>5</v>
       </c>
       <c r="X57" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y57" t="n">
         <v>110</v>
@@ -11392,7 +11404,7 @@
         <v>107</v>
       </c>
       <c r="AB57" t="n">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="58">
@@ -11468,7 +11480,7 @@
         <v>5</v>
       </c>
       <c r="X58" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Y58" t="n">
         <v>115</v>
@@ -11480,7 +11492,7 @@
         <v>109</v>
       </c>
       <c r="AB58" t="n">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="59">
@@ -11556,7 +11568,7 @@
         <v>5</v>
       </c>
       <c r="X59" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Y59" t="n">
         <v>118</v>
@@ -11568,7 +11580,7 @@
         <v>110</v>
       </c>
       <c r="AB59" t="n">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="60">
@@ -11644,7 +11656,7 @@
         <v>5</v>
       </c>
       <c r="X60" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y60" t="n">
         <v>123</v>
@@ -11656,7 +11668,7 @@
         <v>113</v>
       </c>
       <c r="AB60" t="n">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="61">
@@ -11732,7 +11744,7 @@
         <v>5</v>
       </c>
       <c r="X61" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y61" t="n">
         <v>127</v>
@@ -11744,7 +11756,7 @@
         <v>114</v>
       </c>
       <c r="AB61" t="n">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="62">
@@ -11814,7 +11826,7 @@
         <v>5</v>
       </c>
       <c r="X62" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Y62" t="n">
         <v>129</v>
@@ -11826,7 +11838,7 @@
         <v>115</v>
       </c>
       <c r="AB62" t="n">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="63">
@@ -11894,7 +11906,7 @@
         <v>5</v>
       </c>
       <c r="X63" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Y63" t="n">
         <v>131</v>
@@ -11906,7 +11918,7 @@
         <v>115</v>
       </c>
       <c r="AB63" t="n">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="64">
@@ -11982,7 +11994,7 @@
         <v>5</v>
       </c>
       <c r="X64" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y64" t="n">
         <v>132</v>
@@ -11994,7 +12006,7 @@
         <v>119</v>
       </c>
       <c r="AB64" t="n">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="65">
@@ -12070,7 +12082,7 @@
         <v>5</v>
       </c>
       <c r="X65" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y65" t="n">
         <v>135</v>
@@ -12082,7 +12094,7 @@
         <v>119</v>
       </c>
       <c r="AB65" t="n">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="66">
@@ -12158,7 +12170,7 @@
         <v>5</v>
       </c>
       <c r="X66" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y66" t="n">
         <v>136</v>
@@ -12170,7 +12182,7 @@
         <v>121</v>
       </c>
       <c r="AB66" t="n">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="67">
@@ -12246,7 +12258,7 @@
         <v>5</v>
       </c>
       <c r="X67" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y67" t="n">
         <v>138</v>
@@ -12258,7 +12270,7 @@
         <v>123</v>
       </c>
       <c r="AB67" t="n">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="68">
@@ -12334,7 +12346,7 @@
         <v>6</v>
       </c>
       <c r="X68" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Y68" t="n">
         <v>138</v>
@@ -12346,7 +12358,7 @@
         <v>123</v>
       </c>
       <c r="AB68" t="n">
-        <v>1782</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="69">
@@ -12414,7 +12426,7 @@
         <v>6</v>
       </c>
       <c r="X69" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Y69" t="n">
         <v>140</v>
@@ -12426,7 +12438,7 @@
         <v>123</v>
       </c>
       <c r="AB69" t="n">
-        <v>1797</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="70">
@@ -12494,7 +12506,7 @@
         <v>6</v>
       </c>
       <c r="X70" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Y70" t="n">
         <v>142</v>
@@ -12506,7 +12518,7 @@
         <v>123</v>
       </c>
       <c r="AB70" t="n">
-        <v>1805</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="71">
@@ -12582,7 +12594,7 @@
         <v>6</v>
       </c>
       <c r="X71" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Y71" t="n">
         <v>142</v>
@@ -12594,7 +12606,7 @@
         <v>123</v>
       </c>
       <c r="AB71" t="n">
-        <v>1812</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="72">
@@ -12670,7 +12682,7 @@
         <v>7</v>
       </c>
       <c r="X72" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Y72" t="n">
         <v>146</v>
@@ -12682,7 +12694,7 @@
         <v>124</v>
       </c>
       <c r="AB72" t="n">
-        <v>1825</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="73">
@@ -12758,7 +12770,7 @@
         <v>7</v>
       </c>
       <c r="X73" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Y73" t="n">
         <v>146</v>
@@ -12770,7 +12782,7 @@
         <v>125</v>
       </c>
       <c r="AB73" t="n">
-        <v>1831</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="74">
@@ -12844,7 +12856,7 @@
         <v>7</v>
       </c>
       <c r="X74" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Y74" t="n">
         <v>146</v>
@@ -12856,7 +12868,7 @@
         <v>125</v>
       </c>
       <c r="AB74" t="n">
-        <v>1841</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="75">
@@ -12930,7 +12942,7 @@
         <v>7</v>
       </c>
       <c r="X75" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Y75" t="n">
         <v>148</v>
@@ -12942,7 +12954,7 @@
         <v>125</v>
       </c>
       <c r="AB75" t="n">
-        <v>1850</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="76">
@@ -13008,7 +13020,7 @@
         <v>7</v>
       </c>
       <c r="X76" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Y76" t="n">
         <v>148</v>
@@ -13020,7 +13032,7 @@
         <v>126</v>
       </c>
       <c r="AB76" t="n">
-        <v>1860</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="77">
@@ -13082,7 +13094,7 @@
         <v>7</v>
       </c>
       <c r="X77" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Y77" t="n">
         <v>148</v>
@@ -13094,7 +13106,7 @@
         <v>126</v>
       </c>
       <c r="AB77" t="n">
-        <v>1867</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="78">
@@ -13170,7 +13182,7 @@
         <v>7</v>
       </c>
       <c r="X78" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Y78" t="n">
         <v>149</v>
@@ -13182,7 +13194,7 @@
         <v>126</v>
       </c>
       <c r="AB78" t="n">
-        <v>1870</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="79">
@@ -13258,7 +13270,7 @@
         <v>7</v>
       </c>
       <c r="X79" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Y79" t="n">
         <v>149</v>
@@ -13270,7 +13282,7 @@
         <v>126</v>
       </c>
       <c r="AB79" t="n">
-        <v>1876</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="80">
@@ -13342,7 +13354,7 @@
         <v>7</v>
       </c>
       <c r="X80" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Y80" t="n">
         <v>149</v>
@@ -13354,7 +13366,7 @@
         <v>126</v>
       </c>
       <c r="AB80" t="n">
-        <v>1879</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="81">
@@ -13428,7 +13440,7 @@
         <v>7</v>
       </c>
       <c r="X81" t="n">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Y81" t="n">
         <v>149</v>
@@ -13440,7 +13452,7 @@
         <v>126</v>
       </c>
       <c r="AB81" t="n">
-        <v>1882</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="82">
@@ -13512,7 +13524,7 @@
       </c>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="n">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Y82" t="n">
         <v>149</v>
@@ -13524,7 +13536,7 @@
         <v>127</v>
       </c>
       <c r="AB82" t="n">
-        <v>1887</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="83">
@@ -13584,7 +13596,7 @@
         <v>7</v>
       </c>
       <c r="X83" t="n">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Y83" t="n">
         <v>149</v>
@@ -13596,7 +13608,7 @@
         <v>127</v>
       </c>
       <c r="AB83" t="n">
-        <v>1887</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="84">
@@ -13654,7 +13666,7 @@
         <v>7</v>
       </c>
       <c r="X84" t="n">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Y84" t="n">
         <v>149</v>
@@ -13666,7 +13678,7 @@
         <v>127</v>
       </c>
       <c r="AB84" t="n">
-        <v>1890</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="85">
@@ -13738,7 +13750,7 @@
         <v>7</v>
       </c>
       <c r="X85" t="n">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Y85" t="n">
         <v>151</v>
@@ -13750,7 +13762,7 @@
         <v>127</v>
       </c>
       <c r="AB85" t="n">
-        <v>1895</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="86">
@@ -13819,7 +13831,9 @@
       <c r="W86" t="n">
         <v>7</v>
       </c>
-      <c r="X86" t="inlineStr"/>
+      <c r="X86" t="n">
+        <v>406</v>
+      </c>
       <c r="Y86" t="n">
         <v>151</v>
       </c>
@@ -13830,7 +13844,7 @@
         <v>128</v>
       </c>
       <c r="AB86" t="n">
-        <v>1897</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="87">
@@ -13901,7 +13915,9 @@
       <c r="W87" t="n">
         <v>7</v>
       </c>
-      <c r="X87" t="inlineStr"/>
+      <c r="X87" t="n">
+        <v>406</v>
+      </c>
       <c r="Y87" t="n">
         <v>151</v>
       </c>
@@ -13910,7 +13926,7 @@
         <v>128</v>
       </c>
       <c r="AB87" t="n">
-        <v>1898</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="88">
@@ -13935,7 +13951,9 @@
         <v>84</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>12</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
@@ -13957,12 +13975,14 @@
       <c r="W88" t="n">
         <v>7</v>
       </c>
-      <c r="X88" t="inlineStr"/>
+      <c r="X88" t="n">
+        <v>406</v>
+      </c>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>1898</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="89">
@@ -13983,10 +14003,14 @@
         <v>84</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>12</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>20</v>
+      </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
@@ -14008,7 +14032,7 @@
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
-        <v>1898</v>
+        <v>1903</v>
       </c>
     </row>
   </sheetData>
@@ -15789,7 +15813,7 @@
         <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Y30" t="n">
         <v>117</v>
@@ -15801,7 +15825,7 @@
         <v>138</v>
       </c>
       <c r="AB30" t="n">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="31">
@@ -15857,7 +15881,7 @@
       </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y31" t="n">
         <v>118</v>
@@ -15869,7 +15893,7 @@
         <v>146</v>
       </c>
       <c r="AB31" t="n">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="32">
@@ -15927,7 +15951,7 @@
         <v>4</v>
       </c>
       <c r="X32" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Y32" t="n">
         <v>128</v>
@@ -15939,7 +15963,7 @@
         <v>156</v>
       </c>
       <c r="AB32" t="n">
-        <v>1608</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="33">
@@ -15997,7 +16021,7 @@
         <v>7</v>
       </c>
       <c r="X33" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Y33" t="n">
         <v>137</v>
@@ -16009,7 +16033,7 @@
         <v>171</v>
       </c>
       <c r="AB33" t="n">
-        <v>1788</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="34">
@@ -16065,7 +16089,7 @@
         <v>7</v>
       </c>
       <c r="X34" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Y34" t="n">
         <v>142</v>
@@ -16077,7 +16101,7 @@
         <v>187</v>
       </c>
       <c r="AB34" t="n">
-        <v>1875</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="35">
@@ -16133,7 +16157,7 @@
         <v>7</v>
       </c>
       <c r="X35" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Y35" t="n">
         <v>152</v>
@@ -16145,7 +16169,7 @@
         <v>194</v>
       </c>
       <c r="AB35" t="n">
-        <v>1989</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="36">
@@ -16205,7 +16229,7 @@
         <v>7</v>
       </c>
       <c r="X36" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Y36" t="n">
         <v>153</v>
@@ -16217,7 +16241,7 @@
         <v>197</v>
       </c>
       <c r="AB36" t="n">
-        <v>2174</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="37">
@@ -16277,7 +16301,7 @@
         <v>9</v>
       </c>
       <c r="X37" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Y37" t="n">
         <v>152</v>
@@ -16289,7 +16313,7 @@
         <v>196</v>
       </c>
       <c r="AB37" t="n">
-        <v>2202</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="38">
@@ -16351,7 +16375,7 @@
         <v>10</v>
       </c>
       <c r="X38" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Y38" t="n">
         <v>146</v>
@@ -16363,7 +16387,7 @@
         <v>203</v>
       </c>
       <c r="AB38" t="n">
-        <v>2281</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="39">
@@ -16429,7 +16453,7 @@
         <v>4</v>
       </c>
       <c r="X39" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Y39" t="n">
         <v>146</v>
@@ -16441,7 +16465,7 @@
         <v>200</v>
       </c>
       <c r="AB39" t="n">
-        <v>2345</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="40">
@@ -16507,7 +16531,7 @@
         <v>6</v>
       </c>
       <c r="X40" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Y40" t="n">
         <v>146</v>
@@ -16519,7 +16543,7 @@
         <v>207</v>
       </c>
       <c r="AB40" t="n">
-        <v>2327</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="41">
@@ -16581,7 +16605,7 @@
         <v>6</v>
       </c>
       <c r="X41" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Y41" t="n">
         <v>149</v>
@@ -16593,7 +16617,7 @@
         <v>194</v>
       </c>
       <c r="AB41" t="n">
-        <v>2315</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="42">
@@ -16657,7 +16681,7 @@
         <v>5</v>
       </c>
       <c r="X42" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Y42" t="n">
         <v>146</v>
@@ -16669,7 +16693,7 @@
         <v>194</v>
       </c>
       <c r="AB42" t="n">
-        <v>2300</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="43">
@@ -16737,7 +16761,7 @@
         <v>9</v>
       </c>
       <c r="X43" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Y43" t="n">
         <v>133</v>
@@ -16749,7 +16773,7 @@
         <v>198</v>
       </c>
       <c r="AB43" t="n">
-        <v>2302</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="44">
@@ -16819,7 +16843,7 @@
         <v>7</v>
       </c>
       <c r="X44" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Y44" t="n">
         <v>130</v>
@@ -16831,7 +16855,7 @@
         <v>181</v>
       </c>
       <c r="AB44" t="n">
-        <v>2219</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="45">
@@ -16899,7 +16923,7 @@
         <v>5</v>
       </c>
       <c r="X45" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Y45" t="n">
         <v>123</v>
@@ -16911,7 +16935,7 @@
         <v>170</v>
       </c>
       <c r="AB45" t="n">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="46">
@@ -16981,7 +17005,7 @@
         <v>4</v>
       </c>
       <c r="X46" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Y46" t="n">
         <v>119</v>
@@ -16993,7 +17017,7 @@
         <v>165</v>
       </c>
       <c r="AB46" t="n">
-        <v>2062</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="47">
@@ -17059,7 +17083,7 @@
         <v>4</v>
       </c>
       <c r="X47" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Y47" t="n">
         <v>117</v>
@@ -17071,7 +17095,7 @@
         <v>152</v>
       </c>
       <c r="AB47" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="48">
@@ -17133,7 +17157,7 @@
         <v>8</v>
       </c>
       <c r="X48" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Y48" t="n">
         <v>114</v>
@@ -17145,7 +17169,7 @@
         <v>149</v>
       </c>
       <c r="AB48" t="n">
-        <v>1927</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="49">
@@ -17211,7 +17235,7 @@
         <v>5</v>
       </c>
       <c r="X49" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Y49" t="n">
         <v>112</v>
@@ -17223,7 +17247,7 @@
         <v>153</v>
       </c>
       <c r="AB49" t="n">
-        <v>1904</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="50">
@@ -17287,7 +17311,7 @@
         <v>4</v>
       </c>
       <c r="X50" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Y50" t="n">
         <v>108</v>
@@ -17299,7 +17323,7 @@
         <v>154</v>
       </c>
       <c r="AB50" t="n">
-        <v>1887</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="51">
@@ -17369,7 +17393,7 @@
         <v>3</v>
       </c>
       <c r="X51" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Y51" t="n">
         <v>102</v>
@@ -17381,7 +17405,7 @@
         <v>149</v>
       </c>
       <c r="AB51" t="n">
-        <v>1847</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="52">
@@ -17451,7 +17475,7 @@
         <v>3</v>
       </c>
       <c r="X52" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Y52" t="n">
         <v>96</v>
@@ -17463,7 +17487,7 @@
         <v>136</v>
       </c>
       <c r="AB52" t="n">
-        <v>1721</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="53">
@@ -17533,7 +17557,7 @@
         <v>2</v>
       </c>
       <c r="X53" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Y53" t="n">
         <v>94</v>
@@ -17545,7 +17569,7 @@
         <v>135</v>
       </c>
       <c r="AB53" t="n">
-        <v>1664</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="54">
@@ -17615,7 +17639,7 @@
         <v>2</v>
       </c>
       <c r="X54" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Y54" t="n">
         <v>87</v>
@@ -17627,7 +17651,7 @@
         <v>123</v>
       </c>
       <c r="AB54" t="n">
-        <v>1566</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="55">
@@ -17691,7 +17715,7 @@
         <v>2</v>
       </c>
       <c r="X55" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Y55" t="n">
         <v>86</v>
@@ -17703,7 +17727,7 @@
         <v>114</v>
       </c>
       <c r="AB55" t="n">
-        <v>1513</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="56">
@@ -17767,7 +17791,7 @@
         <v>2</v>
       </c>
       <c r="X56" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y56" t="n">
         <v>84</v>
@@ -17779,7 +17803,7 @@
         <v>116</v>
       </c>
       <c r="AB56" t="n">
-        <v>1505</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="57">
@@ -17847,7 +17871,7 @@
         <v>2</v>
       </c>
       <c r="X57" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Y57" t="n">
         <v>81</v>
@@ -17859,7 +17883,7 @@
         <v>121</v>
       </c>
       <c r="AB57" t="n">
-        <v>1481</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="58">
@@ -17929,7 +17953,7 @@
         <v>2</v>
       </c>
       <c r="X58" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Y58" t="n">
         <v>78</v>
@@ -17941,7 +17965,7 @@
         <v>110</v>
       </c>
       <c r="AB58" t="n">
-        <v>1402</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="59">
@@ -18009,7 +18033,7 @@
         <v>3</v>
       </c>
       <c r="X59" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Y59" t="n">
         <v>79</v>
@@ -18021,7 +18045,7 @@
         <v>110</v>
       </c>
       <c r="AB59" t="n">
-        <v>1337</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="60">
@@ -18093,7 +18117,7 @@
         <v>4</v>
       </c>
       <c r="X60" t="n">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Y60" t="n">
         <v>75</v>
@@ -18105,7 +18129,7 @@
         <v>96</v>
       </c>
       <c r="AB60" t="n">
-        <v>1282</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="61">
@@ -18175,7 +18199,7 @@
         <v>3</v>
       </c>
       <c r="X61" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Y61" t="n">
         <v>72</v>
@@ -18187,7 +18211,7 @@
         <v>83</v>
       </c>
       <c r="AB61" t="n">
-        <v>1237</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="62">
@@ -18249,7 +18273,7 @@
         <v>3</v>
       </c>
       <c r="X62" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Y62" t="n">
         <v>74</v>
@@ -18261,7 +18285,7 @@
         <v>77</v>
       </c>
       <c r="AB62" t="n">
-        <v>1208</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="63">
@@ -18325,7 +18349,7 @@
         <v>3</v>
       </c>
       <c r="X63" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Y63" t="n">
         <v>76</v>
@@ -18337,7 +18361,7 @@
         <v>75</v>
       </c>
       <c r="AB63" t="n">
-        <v>1186</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="64">
@@ -18407,7 +18431,7 @@
         <v>4</v>
       </c>
       <c r="X64" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Y64" t="n">
         <v>67</v>
@@ -18419,7 +18443,7 @@
         <v>73</v>
       </c>
       <c r="AB64" t="n">
-        <v>1161</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="65">
@@ -18491,7 +18515,7 @@
         <v>5</v>
       </c>
       <c r="X65" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Y65" t="n">
         <v>63</v>
@@ -18503,7 +18527,7 @@
         <v>84</v>
       </c>
       <c r="AB65" t="n">
-        <v>1131</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="66">
@@ -18575,7 +18599,7 @@
         <v>5</v>
       </c>
       <c r="X66" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Y66" t="n">
         <v>62</v>
@@ -18587,7 +18611,7 @@
         <v>82</v>
       </c>
       <c r="AB66" t="n">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="67">
@@ -18659,7 +18683,7 @@
         <v>4</v>
       </c>
       <c r="X67" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Y67" t="n">
         <v>62</v>
@@ -18671,7 +18695,7 @@
         <v>61</v>
       </c>
       <c r="AB67" t="n">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="68">
@@ -18741,7 +18765,7 @@
         <v>3</v>
       </c>
       <c r="X68" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Y68" t="n">
         <v>60</v>
@@ -18753,7 +18777,7 @@
         <v>43</v>
       </c>
       <c r="AB68" t="n">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="69">
@@ -18817,7 +18841,7 @@
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Y69" t="n">
         <v>60</v>
@@ -18829,7 +18853,7 @@
         <v>41</v>
       </c>
       <c r="AB69" t="n">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="70">
@@ -18893,7 +18917,7 @@
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Y70" t="n">
         <v>61</v>
@@ -18905,7 +18929,7 @@
         <v>42</v>
       </c>
       <c r="AB70" t="n">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="71">
@@ -18975,7 +18999,7 @@
         <v>2</v>
       </c>
       <c r="X71" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Y71" t="n">
         <v>56</v>
@@ -18987,7 +19011,7 @@
         <v>43</v>
       </c>
       <c r="AB71" t="n">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="72">
@@ -19057,7 +19081,7 @@
         <v>2</v>
       </c>
       <c r="X72" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y72" t="n">
         <v>52</v>
@@ -19069,7 +19093,7 @@
         <v>54</v>
       </c>
       <c r="AB72" t="n">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="73">
@@ -19141,7 +19165,7 @@
         <v>3</v>
       </c>
       <c r="X73" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y73" t="n">
         <v>49</v>
@@ -19153,7 +19177,7 @@
         <v>53</v>
       </c>
       <c r="AB73" t="n">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="74">
@@ -19223,7 +19247,7 @@
         <v>2</v>
       </c>
       <c r="X74" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Y74" t="n">
         <v>44</v>
@@ -19235,7 +19259,7 @@
         <v>50</v>
       </c>
       <c r="AB74" t="n">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="75">
@@ -19305,7 +19329,7 @@
         <v>3</v>
       </c>
       <c r="X75" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Y75" t="n">
         <v>42</v>
@@ -19317,7 +19341,7 @@
         <v>47</v>
       </c>
       <c r="AB75" t="n">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="76">
@@ -19375,7 +19399,7 @@
         <v>3</v>
       </c>
       <c r="X76" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Y76" t="n">
         <v>41</v>
@@ -19387,7 +19411,7 @@
         <v>37</v>
       </c>
       <c r="AB76" t="n">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="77">
@@ -19445,7 +19469,7 @@
         <v>3</v>
       </c>
       <c r="X77" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Y77" t="n">
         <v>42</v>
@@ -19457,7 +19481,7 @@
         <v>40</v>
       </c>
       <c r="AB77" t="n">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="78">
@@ -19527,7 +19551,7 @@
         <v>1</v>
       </c>
       <c r="X78" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y78" t="n">
         <v>42</v>
@@ -19539,7 +19563,7 @@
         <v>44</v>
       </c>
       <c r="AB78" t="n">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="79">
@@ -19609,7 +19633,7 @@
         <v>3</v>
       </c>
       <c r="X79" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y79" t="n">
         <v>39</v>
@@ -19621,7 +19645,7 @@
         <v>44</v>
       </c>
       <c r="AB79" t="n">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="80">
@@ -19689,7 +19713,7 @@
         <v>3</v>
       </c>
       <c r="X80" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y80" t="n">
         <v>36</v>
@@ -19701,7 +19725,7 @@
         <v>38</v>
       </c>
       <c r="AB80" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="81">
@@ -19767,7 +19791,7 @@
         <v>3</v>
       </c>
       <c r="X81" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y81" t="n">
         <v>34</v>
@@ -19779,7 +19803,7 @@
         <v>36</v>
       </c>
       <c r="AB81" t="n">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="82">
@@ -19849,7 +19873,7 @@
       </c>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Y82" t="n">
         <v>31</v>
@@ -19861,7 +19885,7 @@
         <v>33</v>
       </c>
       <c r="AB82" t="n">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="83">
@@ -19915,7 +19939,7 @@
         <v>4</v>
       </c>
       <c r="X83" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y83" t="n">
         <v>31</v>
@@ -19927,7 +19951,7 @@
         <v>32</v>
       </c>
       <c r="AB83" t="n">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="84">
@@ -19981,7 +20005,7 @@
         <v>5</v>
       </c>
       <c r="X84" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y84" t="n">
         <v>31</v>
@@ -19993,7 +20017,7 @@
         <v>33</v>
       </c>
       <c r="AB84" t="n">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="85">
@@ -20061,7 +20085,7 @@
         <v>5</v>
       </c>
       <c r="X85" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y85" t="n">
         <v>29</v>
@@ -20073,7 +20097,7 @@
         <v>33</v>
       </c>
       <c r="AB85" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86">
@@ -20136,7 +20160,9 @@
       <c r="W86" t="n">
         <v>3</v>
       </c>
-      <c r="X86" t="inlineStr"/>
+      <c r="X86" t="n">
+        <v>55</v>
+      </c>
       <c r="Y86" t="n">
         <v>28</v>
       </c>
@@ -20210,7 +20236,9 @@
       <c r="W87" t="n">
         <v>0</v>
       </c>
-      <c r="X87" t="inlineStr"/>
+      <c r="X87" t="n">
+        <v>53</v>
+      </c>
       <c r="Y87" t="n">
         <v>28</v>
       </c>
@@ -20219,7 +20247,7 @@
         <v>29</v>
       </c>
       <c r="AB87" t="n">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="88">
@@ -20244,7 +20272,9 @@
       <c r="I88" t="n">
         <v>154</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
@@ -20262,12 +20292,14 @@
       <c r="W88" t="n">
         <v>0</v>
       </c>
-      <c r="X88" t="inlineStr"/>
+      <c r="X88" t="n">
+        <v>51</v>
+      </c>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="89">
@@ -20286,7 +20318,9 @@
         <v>11</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
@@ -20309,7 +20343,7 @@
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -21896,7 +21930,7 @@
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y30" t="n">
         <v>13</v>
@@ -21906,7 +21940,7 @@
       </c>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31">
@@ -21954,7 +21988,7 @@
       </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y31" t="n">
         <v>15</v>
@@ -21964,7 +21998,7 @@
       </c>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32">
@@ -22014,7 +22048,7 @@
       </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y32" t="n">
         <v>19</v>
@@ -22024,7 +22058,7 @@
       </c>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33">
@@ -22074,7 +22108,7 @@
       </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y33" t="n">
         <v>20</v>
@@ -22084,7 +22118,7 @@
       </c>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34">
@@ -22132,7 +22166,7 @@
       </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y34" t="n">
         <v>21</v>
@@ -22142,7 +22176,7 @@
       </c>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35">
@@ -22190,7 +22224,7 @@
       </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y35" t="n">
         <v>22</v>
@@ -22200,7 +22234,7 @@
       </c>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36">
@@ -22252,7 +22286,7 @@
       </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y36" t="n">
         <v>25</v>
@@ -22262,7 +22296,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37">
@@ -22316,7 +22350,7 @@
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y37" t="n">
         <v>24</v>
@@ -22326,7 +22360,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38">
@@ -22382,7 +22416,7 @@
       </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Y38" t="n">
         <v>26</v>
@@ -22392,7 +22426,7 @@
       </c>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39">
@@ -22450,7 +22484,7 @@
       </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Y39" t="n">
         <v>28</v>
@@ -22460,7 +22494,7 @@
       </c>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40">
@@ -22518,7 +22552,7 @@
       </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Y40" t="n">
         <v>26</v>
@@ -22528,7 +22562,7 @@
       </c>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41">
@@ -22584,7 +22618,7 @@
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Y41" t="n">
         <v>28</v>
@@ -22594,7 +22628,7 @@
       </c>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42">
@@ -22650,7 +22684,7 @@
       </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Y42" t="n">
         <v>26</v>
@@ -22660,7 +22694,7 @@
       </c>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43">
@@ -22720,7 +22754,7 @@
       </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Y43" t="n">
         <v>26</v>
@@ -22730,7 +22764,7 @@
       </c>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44">
@@ -22790,7 +22824,7 @@
       </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Y44" t="n">
         <v>25</v>
@@ -22800,7 +22834,7 @@
       </c>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45">
@@ -22858,7 +22892,7 @@
       </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Y45" t="n">
         <v>26</v>
@@ -22868,7 +22902,7 @@
       </c>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46">
@@ -22928,7 +22962,7 @@
       </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Y46" t="n">
         <v>24</v>
@@ -22938,7 +22972,7 @@
       </c>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="n">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47">
@@ -22996,7 +23030,7 @@
       </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Y47" t="n">
         <v>24</v>
@@ -23006,7 +23040,7 @@
       </c>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48">
@@ -23062,7 +23096,7 @@
       </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Y48" t="n">
         <v>20</v>
@@ -23072,7 +23106,7 @@
       </c>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49">
@@ -23130,7 +23164,7 @@
       </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Y49" t="n">
         <v>22</v>
@@ -23140,7 +23174,7 @@
       </c>
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50">
@@ -23196,7 +23230,7 @@
       </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Y50" t="n">
         <v>21</v>
@@ -23206,7 +23240,7 @@
       </c>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51">
@@ -23266,7 +23300,7 @@
       </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y51" t="n">
         <v>20</v>
@@ -23276,7 +23310,7 @@
       </c>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52">
@@ -23336,7 +23370,7 @@
       </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y52" t="n">
         <v>20</v>
@@ -23346,7 +23380,7 @@
       </c>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53">
@@ -23406,7 +23440,7 @@
       </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y53" t="n">
         <v>17</v>
@@ -23416,7 +23450,7 @@
       </c>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54">
@@ -23476,7 +23510,7 @@
       </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Y54" t="n">
         <v>16</v>
@@ -23486,7 +23520,7 @@
       </c>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55">
@@ -23542,7 +23576,7 @@
       </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y55" t="n">
         <v>18</v>
@@ -23552,7 +23586,7 @@
       </c>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56">
@@ -23608,7 +23642,7 @@
       </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Y56" t="n">
         <v>16</v>
@@ -23618,7 +23652,7 @@
       </c>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57">
@@ -23676,7 +23710,7 @@
       </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Y57" t="n">
         <v>15</v>
@@ -23686,7 +23720,7 @@
       </c>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58">
@@ -23746,7 +23780,7 @@
       </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y58" t="n">
         <v>14</v>
@@ -23756,7 +23790,7 @@
       </c>
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59">
@@ -23814,7 +23848,7 @@
       </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y59" t="n">
         <v>13</v>
@@ -23824,7 +23858,7 @@
       </c>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60">
@@ -23886,7 +23920,7 @@
       </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y60" t="n">
         <v>13</v>
@@ -23896,7 +23930,7 @@
       </c>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61">
@@ -23956,7 +23990,7 @@
       </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y61" t="n">
         <v>14</v>
@@ -23966,7 +24000,7 @@
       </c>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62">
@@ -24020,7 +24054,7 @@
       </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Y62" t="n">
         <v>14</v>
@@ -24030,7 +24064,7 @@
       </c>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63">
@@ -24086,7 +24120,7 @@
       </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Y63" t="n">
         <v>15</v>
@@ -24096,7 +24130,7 @@
       </c>
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64">
@@ -24156,7 +24190,7 @@
       </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y64" t="n">
         <v>14</v>
@@ -24166,7 +24200,7 @@
       </c>
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
@@ -24228,7 +24262,7 @@
       </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y65" t="n">
         <v>13</v>
@@ -24238,7 +24272,7 @@
       </c>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66">
@@ -24300,7 +24334,7 @@
       </c>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y66" t="n">
         <v>11</v>
@@ -24310,7 +24344,7 @@
       </c>
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67">
@@ -24372,7 +24406,7 @@
       </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y67" t="n">
         <v>10</v>
@@ -24382,7 +24416,7 @@
       </c>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68">
@@ -24442,7 +24476,7 @@
       </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y68" t="n">
         <v>10</v>
@@ -24452,7 +24486,7 @@
       </c>
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
@@ -24508,7 +24542,7 @@
       </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y69" t="n">
         <v>10</v>
@@ -24518,7 +24552,7 @@
       </c>
       <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70">
@@ -25586,7 +25620,7 @@
       </c>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y85" t="n">
         <v>6</v>
@@ -25596,7 +25630,7 @@
       </c>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86">
@@ -25651,7 +25685,9 @@
         <v>5</v>
       </c>
       <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
+      <c r="X86" t="n">
+        <v>14</v>
+      </c>
       <c r="Y86" t="n">
         <v>6</v>
       </c>
@@ -25660,7 +25696,7 @@
       </c>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87">
@@ -25717,14 +25753,16 @@
         <v>4</v>
       </c>
       <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
+      <c r="X87" t="n">
+        <v>14</v>
+      </c>
       <c r="Y87" t="n">
         <v>6</v>
       </c>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88">
@@ -25765,12 +25803,14 @@
       </c>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
+      <c r="X88" t="n">
+        <v>14</v>
+      </c>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89">
@@ -25812,7 +25852,7 @@
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202003260000..xlsx
+++ b/cache/daily/ch/202003260000..xlsx
@@ -7333,7 +7333,9 @@
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>1874</v>
+      </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
         <v>976</v>
@@ -7371,7 +7373,7 @@
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
-        <v>30628</v>
+        <v>30633</v>
       </c>
     </row>
   </sheetData>
@@ -13994,7 +13996,9 @@
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>96</v>
+      </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
         <v>50</v>

--- a/cache/daily/ch/202003260000..xlsx
+++ b/cache/daily/ch/202003260000..xlsx
@@ -7295,7 +7295,9 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
+      <c r="O88" t="n">
+        <v>123</v>
+      </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="n">
@@ -7332,11 +7334,15 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>99</v>
+      </c>
       <c r="E89" t="n">
         <v>1874</v>
       </c>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>838</v>
+      </c>
       <c r="G89" t="n">
         <v>976</v>
       </c>
@@ -7367,7 +7373,9 @@
         <v>380</v>
       </c>
       <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
+      <c r="W89" t="n">
+        <v>93</v>
+      </c>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
@@ -13960,7 +13968,9 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
+      <c r="O88" t="n">
+        <v>3</v>
+      </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
@@ -13995,11 +14005,15 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>3</v>
+      </c>
       <c r="E89" t="n">
         <v>96</v>
       </c>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>35</v>
+      </c>
       <c r="G89" t="n">
         <v>50</v>
       </c>
@@ -14030,7 +14044,9 @@
         <v>18</v>
       </c>
       <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
+      <c r="W89" t="n">
+        <v>7</v>
+      </c>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
@@ -20283,7 +20299,9 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
@@ -20314,9 +20332,13 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>2</v>
+      </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
         <v>11</v>
@@ -20341,13 +20363,15 @@
         <v>6</v>
       </c>
       <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -25796,7 +25820,9 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
@@ -25825,9 +25851,13 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
         <v>3</v>
@@ -30262,7 +30292,9 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
@@ -34805,7 +34837,9 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>799</v>
+      </c>
       <c r="G89" t="n">
         <v>916</v>
       </c>
@@ -34828,13 +34862,15 @@
       </c>
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
+      <c r="W89" t="n">
+        <v>84</v>
+      </c>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
-        <v>5349</v>
+        <v>5352</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202003260000..xlsx
+++ b/cache/daily/ch/202003260000..xlsx
@@ -7321,9 +7321,11 @@
       </c>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr"/>
+      <c r="AA88" t="n">
+        <v>3590</v>
+      </c>
       <c r="AB88" t="n">
-        <v>30627</v>
+        <v>30628</v>
       </c>
     </row>
     <row r="89">
@@ -7379,9 +7381,11 @@
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr"/>
+      <c r="AA89" t="n">
+        <v>3592</v>
+      </c>
       <c r="AB89" t="n">
-        <v>30633</v>
+        <v>30636</v>
       </c>
     </row>
   </sheetData>
@@ -13992,7 +13996,9 @@
       </c>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr"/>
+      <c r="AA88" t="n">
+        <v>128</v>
+      </c>
       <c r="AB88" t="n">
         <v>1903</v>
       </c>
@@ -14050,7 +14056,9 @@
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr"/>
+      <c r="AA89" t="n">
+        <v>128</v>
+      </c>
       <c r="AB89" t="n">
         <v>1903</v>
       </c>
@@ -20319,9 +20327,11 @@
       </c>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr"/>
+      <c r="AA88" t="n">
+        <v>25</v>
+      </c>
       <c r="AB88" t="n">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89">
@@ -20369,9 +20379,11 @@
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr"/>
+      <c r="AA89" t="n">
+        <v>31</v>
+      </c>
       <c r="AB89" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -30277,9 +30289,11 @@
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr"/>
+      <c r="AA88" t="n">
+        <v>3</v>
+      </c>
       <c r="AB88" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
@@ -30315,7 +30329,9 @@
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr"/>
+      <c r="AA89" t="n">
+        <v>4</v>
+      </c>
       <c r="AB89" t="n">
         <v>18</v>
       </c>

--- a/cache/daily/ch/202003260000..xlsx
+++ b/cache/daily/ch/202003260000..xlsx
@@ -7312,7 +7312,9 @@
       <c r="U88" t="n">
         <v>380</v>
       </c>
-      <c r="V88" t="inlineStr"/>
+      <c r="V88" t="n">
+        <v>3301</v>
+      </c>
       <c r="W88" t="n">
         <v>93</v>
       </c>
@@ -7325,7 +7327,7 @@
         <v>3590</v>
       </c>
       <c r="AB88" t="n">
-        <v>30628</v>
+        <v>30642</v>
       </c>
     </row>
     <row r="89">
@@ -7374,7 +7376,9 @@
       <c r="U89" t="n">
         <v>380</v>
       </c>
-      <c r="V89" t="inlineStr"/>
+      <c r="V89" t="n">
+        <v>3304</v>
+      </c>
       <c r="W89" t="n">
         <v>93</v>
       </c>
@@ -7385,7 +7389,7 @@
         <v>3592</v>
       </c>
       <c r="AB89" t="n">
-        <v>30636</v>
+        <v>30653</v>
       </c>
     </row>
   </sheetData>
@@ -13987,7 +13991,9 @@
       <c r="U88" t="n">
         <v>18</v>
       </c>
-      <c r="V88" t="inlineStr"/>
+      <c r="V88" t="n">
+        <v>344</v>
+      </c>
       <c r="W88" t="n">
         <v>7</v>
       </c>
@@ -14049,7 +14055,9 @@
       <c r="U89" t="n">
         <v>18</v>
       </c>
-      <c r="V89" t="inlineStr"/>
+      <c r="V89" t="n">
+        <v>345</v>
+      </c>
       <c r="W89" t="n">
         <v>7</v>
       </c>
@@ -14060,7 +14068,7 @@
         <v>128</v>
       </c>
       <c r="AB89" t="n">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
   </sheetData>
@@ -20318,7 +20326,9 @@
       <c r="U88" t="n">
         <v>6</v>
       </c>
-      <c r="V88" t="inlineStr"/>
+      <c r="V88" t="n">
+        <v>50</v>
+      </c>
       <c r="W88" t="n">
         <v>0</v>
       </c>
@@ -20331,7 +20341,7 @@
         <v>25</v>
       </c>
       <c r="AB88" t="n">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89">
@@ -20372,7 +20382,9 @@
       <c r="U89" t="n">
         <v>6</v>
       </c>
-      <c r="V89" t="inlineStr"/>
+      <c r="V89" t="n">
+        <v>46</v>
+      </c>
       <c r="W89" t="n">
         <v>0</v>
       </c>
@@ -20383,7 +20395,7 @@
         <v>31</v>
       </c>
       <c r="AB89" t="n">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -25843,7 +25855,9 @@
       <c r="U88" t="n">
         <v>4</v>
       </c>
-      <c r="V88" t="inlineStr"/>
+      <c r="V88" t="n">
+        <v>5</v>
+      </c>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="n">
         <v>14</v>
@@ -25852,7 +25866,7 @@
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89">
@@ -25891,14 +25905,16 @@
       <c r="U89" t="n">
         <v>4</v>
       </c>
-      <c r="V89" t="inlineStr"/>
+      <c r="V89" t="n">
+        <v>5</v>
+      </c>
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -30284,7 +30300,9 @@
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
+      <c r="V88" t="n">
+        <v>5</v>
+      </c>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
@@ -30293,7 +30311,7 @@
         <v>3</v>
       </c>
       <c r="AB88" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -30324,7 +30342,9 @@
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
+      <c r="V89" t="n">
+        <v>3</v>
+      </c>
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
@@ -30333,7 +30353,7 @@
         <v>4</v>
       </c>
       <c r="AB89" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -34831,7 +34851,9 @@
         <v>283</v>
       </c>
       <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
+      <c r="V88" t="n">
+        <v>885</v>
+      </c>
       <c r="W88" t="n">
         <v>82</v>
       </c>
@@ -34840,7 +34862,7 @@
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>5348</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="89">
@@ -34877,7 +34899,9 @@
         <v>284</v>
       </c>
       <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
+      <c r="V89" t="n">
+        <v>887</v>
+      </c>
       <c r="W89" t="n">
         <v>84</v>
       </c>
@@ -34886,7 +34910,7 @@
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
-        <v>5352</v>
+        <v>5358</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202003260000..xlsx
+++ b/cache/daily/ch/202003260000..xlsx
@@ -7292,7 +7292,9 @@
         <v>128</v>
       </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>203</v>
+      </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="n">
@@ -7358,7 +7360,9 @@
         <v>128</v>
       </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>204</v>
+      </c>
       <c r="M89" t="n">
         <v>733</v>
       </c>
@@ -7389,7 +7393,7 @@
         <v>3592</v>
       </c>
       <c r="AB89" t="n">
-        <v>30653</v>
+        <v>30654</v>
       </c>
     </row>
   </sheetData>
@@ -13973,7 +13977,9 @@
         <v>12</v>
       </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>7</v>
+      </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="n">
@@ -14037,7 +14043,9 @@
         <v>12</v>
       </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>7</v>
+      </c>
       <c r="M89" t="n">
         <v>20</v>
       </c>
@@ -20312,7 +20320,9 @@
         <v>1</v>
       </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>3</v>
+      </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="n">
@@ -20368,7 +20378,9 @@
         <v>1</v>
       </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>3</v>
+      </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -25841,7 +25853,9 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="n">
@@ -25866,7 +25880,7 @@
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89">
@@ -25891,7 +25905,9 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -25914,7 +25930,7 @@
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202003260000..xlsx
+++ b/cache/daily/ch/202003260000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB89"/>
+  <dimension ref="A1:AB90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7396,6 +7396,42 @@
         <v>30654</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-23</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="n">
+        <v>30654</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -7407,7 +7443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB89"/>
+  <dimension ref="A1:AB90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14079,6 +14115,42 @@
         <v>1904</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-23</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="n">
+        <v>1904</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -14090,7 +14162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB89"/>
+  <dimension ref="A1:AB90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20410,6 +20482,42 @@
         <v>439</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-23</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="n">
+        <v>439</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -20421,7 +20529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB89"/>
+  <dimension ref="A1:AB90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25933,6 +26041,42 @@
         <v>51</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-23</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="n">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -25944,7 +26088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB89"/>
+  <dimension ref="A1:AB90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30372,6 +30516,42 @@
         <v>17</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-23</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="n">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -30383,7 +30563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB89"/>
+  <dimension ref="A1:AB90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34929,6 +35109,42 @@
         <v>5358</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-23</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="n">
+        <v>5358</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -34940,7 +35156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB89"/>
+  <dimension ref="A1:AB90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38450,6 +38666,42 @@
         <v>34179</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-23</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="n">
+        <v>34179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202003260000..xlsx
+++ b/cache/daily/ch/202003260000..xlsx
@@ -7420,7 +7420,9 @@
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
+      <c r="T90" t="n">
+        <v>307</v>
+      </c>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
@@ -14139,7 +14141,9 @@
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
+      <c r="T90" t="n">
+        <v>23</v>
+      </c>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
@@ -35133,7 +35137,9 @@
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
+      <c r="T90" t="n">
+        <v>284</v>
+      </c>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>

--- a/cache/daily/ch/202003260000..xlsx
+++ b/cache/daily/ch/202003260000..xlsx
@@ -7405,7 +7405,9 @@
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>1878</v>
+      </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
@@ -7431,7 +7433,7 @@
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="n">
-        <v>30654</v>
+        <v>30658</v>
       </c>
     </row>
   </sheetData>
@@ -14126,7 +14128,9 @@
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>96</v>
+      </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
@@ -20441,7 +20445,9 @@
       <c r="D89" t="n">
         <v>1</v>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>20</v>
+      </c>
       <c r="F89" t="n">
         <v>2</v>
       </c>
@@ -20483,7 +20489,7 @@
         <v>31</v>
       </c>
       <c r="AB89" t="n">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90">
@@ -20519,7 +20525,7 @@
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="n">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -26006,7 +26012,9 @@
       <c r="D89" t="n">
         <v>1</v>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>3</v>
+      </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
@@ -30487,7 +30495,9 @@
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>3</v>
+      </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
